--- a/time_genetic.xlsx
+++ b/time_genetic.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>g=50</t>
+    <t>GA1</t>
   </si>
   <si>
-    <t>g=70</t>
+    <t>GA2</t>
   </si>
   <si>
-    <t>g=100</t>
+    <t>GA3</t>
   </si>
   <si>
-    <t>g=200</t>
+    <t>GA4</t>
   </si>
 </sst>
 </file>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.80570077896118</v>
+        <v>14.60385823249817</v>
       </c>
       <c r="C2">
-        <v>21.23418998718262</v>
+        <v>21.33935737609863</v>
       </c>
       <c r="D2">
-        <v>30.6785352230072</v>
+        <v>30.81218099594116</v>
       </c>
       <c r="E2">
-        <v>57.89102530479431</v>
+        <v>60.34647130966187</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.1826343536377</v>
+        <v>14.36964893341064</v>
       </c>
       <c r="C3">
-        <v>21.31449699401855</v>
+        <v>21.08540725708008</v>
       </c>
       <c r="D3">
-        <v>30.17228221893311</v>
+        <v>30.45448350906372</v>
       </c>
       <c r="E3">
-        <v>57.98459053039551</v>
+        <v>60.15534210205078</v>
       </c>
     </row>
   </sheetData>

--- a/time_genetic.xlsx
+++ b/time_genetic.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.60385823249817</v>
+        <v>16.112389087677</v>
       </c>
       <c r="C2">
-        <v>21.33935737609863</v>
+        <v>21.10968708992004</v>
       </c>
       <c r="D2">
-        <v>30.81218099594116</v>
+        <v>34.24228572845459</v>
       </c>
       <c r="E2">
-        <v>60.34647130966187</v>
+        <v>125.5212862491608</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,832 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.36964893341064</v>
+        <v>14.72546982765198</v>
       </c>
       <c r="C3">
-        <v>21.08540725708008</v>
+        <v>21.484708070755</v>
       </c>
       <c r="D3">
-        <v>30.45448350906372</v>
+        <v>34.34887886047363</v>
       </c>
       <c r="E3">
-        <v>60.15534210205078</v>
+        <v>129.3233802318573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15.20018720626831</v>
+      </c>
+      <c r="C4">
+        <v>21.31485486030579</v>
+      </c>
+      <c r="D4">
+        <v>33.90909814834595</v>
+      </c>
+      <c r="E4">
+        <v>124.5431344509125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15.3689386844635</v>
+      </c>
+      <c r="C5">
+        <v>20.41527462005615</v>
+      </c>
+      <c r="D5">
+        <v>35.60188341140747</v>
+      </c>
+      <c r="E5">
+        <v>127.553249835968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>16.14503264427185</v>
+      </c>
+      <c r="C6">
+        <v>21.33996176719666</v>
+      </c>
+      <c r="D6">
+        <v>35.88400840759277</v>
+      </c>
+      <c r="E6">
+        <v>127.2672338485718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15.10389757156372</v>
+      </c>
+      <c r="C7">
+        <v>21.03697347640991</v>
+      </c>
+      <c r="D7">
+        <v>35.48400068283081</v>
+      </c>
+      <c r="E7">
+        <v>124.3871324062347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14.16766881942749</v>
+      </c>
+      <c r="C8">
+        <v>20.94536519050598</v>
+      </c>
+      <c r="D8">
+        <v>34.2551097869873</v>
+      </c>
+      <c r="E8">
+        <v>128.1705739498138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>14.78531932830811</v>
+      </c>
+      <c r="C9">
+        <v>20.67588663101196</v>
+      </c>
+      <c r="D9">
+        <v>34.04650807380676</v>
+      </c>
+      <c r="E9">
+        <v>121.0069251060486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>14.50094032287598</v>
+      </c>
+      <c r="C10">
+        <v>21.01681613922119</v>
+      </c>
+      <c r="D10">
+        <v>33.53748536109924</v>
+      </c>
+      <c r="E10">
+        <v>121.6066708564758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>14.36777448654175</v>
+      </c>
+      <c r="C11">
+        <v>20.96198582649231</v>
+      </c>
+      <c r="D11">
+        <v>33.63511848449707</v>
+      </c>
+      <c r="E11">
+        <v>119.289199590683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>14.04557490348816</v>
+      </c>
+      <c r="C12">
+        <v>20.48840975761414</v>
+      </c>
+      <c r="D12">
+        <v>34.98167133331299</v>
+      </c>
+      <c r="E12">
+        <v>77.38485836982727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14.16843891143799</v>
+      </c>
+      <c r="C13">
+        <v>21.5326566696167</v>
+      </c>
+      <c r="D13">
+        <v>33.87563920021057</v>
+      </c>
+      <c r="E13">
+        <v>62.16656160354614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14.18972182273865</v>
+      </c>
+      <c r="C14">
+        <v>21.01896166801453</v>
+      </c>
+      <c r="D14">
+        <v>33.8345308303833</v>
+      </c>
+      <c r="E14">
+        <v>60.13661599159241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14.123530626297</v>
+      </c>
+      <c r="C15">
+        <v>21.0330548286438</v>
+      </c>
+      <c r="D15">
+        <v>35.03321552276611</v>
+      </c>
+      <c r="E15">
+        <v>59.63622426986694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14.40036034584045</v>
+      </c>
+      <c r="C16">
+        <v>21.27381277084351</v>
+      </c>
+      <c r="D16">
+        <v>33.5316596031189</v>
+      </c>
+      <c r="E16">
+        <v>59.3134503364563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>14.18864798545837</v>
+      </c>
+      <c r="C17">
+        <v>22.51100277900696</v>
+      </c>
+      <c r="D17">
+        <v>35.85335063934326</v>
+      </c>
+      <c r="E17">
+        <v>58.20079970359802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>14.07556176185608</v>
+      </c>
+      <c r="C18">
+        <v>23.95944905281067</v>
+      </c>
+      <c r="D18">
+        <v>34.65952372550964</v>
+      </c>
+      <c r="E18">
+        <v>58.49962019920349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>14.60653305053711</v>
+      </c>
+      <c r="C19">
+        <v>22.63106489181519</v>
+      </c>
+      <c r="D19">
+        <v>34.36388087272644</v>
+      </c>
+      <c r="E19">
+        <v>58.48455190658569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>13.6753888130188</v>
+      </c>
+      <c r="C20">
+        <v>23.19460844993591</v>
+      </c>
+      <c r="D20">
+        <v>35.23693203926086</v>
+      </c>
+      <c r="E20">
+        <v>58.3049647808075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>14.17369365692139</v>
+      </c>
+      <c r="C21">
+        <v>23.11978268623352</v>
+      </c>
+      <c r="D21">
+        <v>35.36406230926514</v>
+      </c>
+      <c r="E21">
+        <v>59.39879202842712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>14.64099979400635</v>
+      </c>
+      <c r="C22">
+        <v>23.0654456615448</v>
+      </c>
+      <c r="D22">
+        <v>33.22568655014038</v>
+      </c>
+      <c r="E22">
+        <v>58.74358248710632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>14.08609485626221</v>
+      </c>
+      <c r="C23">
+        <v>24.01147246360779</v>
+      </c>
+      <c r="D23">
+        <v>33.28960537910461</v>
+      </c>
+      <c r="E23">
+        <v>58.86463975906372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>15.04541850090027</v>
+      </c>
+      <c r="C24">
+        <v>22.23810052871704</v>
+      </c>
+      <c r="D24">
+        <v>31.06191062927246</v>
+      </c>
+      <c r="E24">
+        <v>59.0531895160675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>14.73254489898682</v>
+      </c>
+      <c r="C25">
+        <v>22.64204573631287</v>
+      </c>
+      <c r="D25">
+        <v>30.17774701118469</v>
+      </c>
+      <c r="E25">
+        <v>58.57201910018921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>14.39393162727356</v>
+      </c>
+      <c r="C26">
+        <v>23.50241804122925</v>
+      </c>
+      <c r="D26">
+        <v>30.02966260910034</v>
+      </c>
+      <c r="E26">
+        <v>58.9120979309082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>14.0633065700531</v>
+      </c>
+      <c r="C27">
+        <v>25.20922303199768</v>
+      </c>
+      <c r="D27">
+        <v>28.99154329299927</v>
+      </c>
+      <c r="E27">
+        <v>58.04398441314697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>14.53768587112427</v>
+      </c>
+      <c r="C28">
+        <v>24.01103568077087</v>
+      </c>
+      <c r="D28">
+        <v>29.59035325050354</v>
+      </c>
+      <c r="E28">
+        <v>59.49037146568298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>14.48015761375427</v>
+      </c>
+      <c r="C29">
+        <v>23.90221834182739</v>
+      </c>
+      <c r="D29">
+        <v>30.31582140922546</v>
+      </c>
+      <c r="E29">
+        <v>59.82567930221558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>14.34446668624878</v>
+      </c>
+      <c r="C30">
+        <v>24.52885627746582</v>
+      </c>
+      <c r="D30">
+        <v>29.96394848823547</v>
+      </c>
+      <c r="E30">
+        <v>58.41432428359985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>14.760981798172</v>
+      </c>
+      <c r="C31">
+        <v>24.61845827102661</v>
+      </c>
+      <c r="D31">
+        <v>33.88014554977417</v>
+      </c>
+      <c r="E31">
+        <v>58.42205333709717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>14.55612540245056</v>
+      </c>
+      <c r="C32">
+        <v>24.2360827922821</v>
+      </c>
+      <c r="D32">
+        <v>31.27027702331543</v>
+      </c>
+      <c r="E32">
+        <v>58.37991118431091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>14.60542225837708</v>
+      </c>
+      <c r="C33">
+        <v>24.12585926055908</v>
+      </c>
+      <c r="D33">
+        <v>31.31658744812012</v>
+      </c>
+      <c r="E33">
+        <v>58.61104297637939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>14.53636527061462</v>
+      </c>
+      <c r="C34">
+        <v>24.58771014213562</v>
+      </c>
+      <c r="D34">
+        <v>31.94279885292053</v>
+      </c>
+      <c r="E34">
+        <v>59.30876708030701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>14.62013506889343</v>
+      </c>
+      <c r="C35">
+        <v>24.49343872070312</v>
+      </c>
+      <c r="D35">
+        <v>32.84347748756409</v>
+      </c>
+      <c r="E35">
+        <v>58.50001215934753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>13.82183456420898</v>
+      </c>
+      <c r="C36">
+        <v>24.79354095458984</v>
+      </c>
+      <c r="D36">
+        <v>32.7738573551178</v>
+      </c>
+      <c r="E36">
+        <v>59.2559506893158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>13.98412990570068</v>
+      </c>
+      <c r="C37">
+        <v>23.08594250679016</v>
+      </c>
+      <c r="D37">
+        <v>42.80379962921143</v>
+      </c>
+      <c r="E37">
+        <v>58.84965395927429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>14.35700464248657</v>
+      </c>
+      <c r="C38">
+        <v>23.88953471183777</v>
+      </c>
+      <c r="D38">
+        <v>51.31335306167603</v>
+      </c>
+      <c r="E38">
+        <v>58.61423921585083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>13.99986886978149</v>
+      </c>
+      <c r="C39">
+        <v>24.7101104259491</v>
+      </c>
+      <c r="D39">
+        <v>40.24458074569702</v>
+      </c>
+      <c r="E39">
+        <v>59.2037878036499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>13.8454921245575</v>
+      </c>
+      <c r="C40">
+        <v>24.44553375244141</v>
+      </c>
+      <c r="D40">
+        <v>44.50990986824036</v>
+      </c>
+      <c r="E40">
+        <v>59.08386707305908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>15.04533839225769</v>
+      </c>
+      <c r="C41">
+        <v>24.60918068885803</v>
+      </c>
+      <c r="D41">
+        <v>77.29255700111389</v>
+      </c>
+      <c r="E41">
+        <v>60.03640103340149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>14.40314626693726</v>
+      </c>
+      <c r="C42">
+        <v>24.21672987937927</v>
+      </c>
+      <c r="D42">
+        <v>68.94367504119873</v>
+      </c>
+      <c r="E42">
+        <v>59.39531421661377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>14.55347394943237</v>
+      </c>
+      <c r="C43">
+        <v>23.93484830856323</v>
+      </c>
+      <c r="D43">
+        <v>74.83874559402466</v>
+      </c>
+      <c r="E43">
+        <v>59.5753014087677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>14.40560865402222</v>
+      </c>
+      <c r="C44">
+        <v>23.95467519760132</v>
+      </c>
+      <c r="D44">
+        <v>66.87078595161438</v>
+      </c>
+      <c r="E44">
+        <v>60.28195977210999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>14.55695080757141</v>
+      </c>
+      <c r="C45">
+        <v>24.22849631309509</v>
+      </c>
+      <c r="D45">
+        <v>68.63141107559204</v>
+      </c>
+      <c r="E45">
+        <v>59.11800599098206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>14.36323308944702</v>
+      </c>
+      <c r="C46">
+        <v>24.75107741355896</v>
+      </c>
+      <c r="D46">
+        <v>66.05282616615295</v>
+      </c>
+      <c r="E46">
+        <v>57.24418830871582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>14.77482581138611</v>
+      </c>
+      <c r="C47">
+        <v>24.47979044914246</v>
+      </c>
+      <c r="D47">
+        <v>68.87082767486572</v>
+      </c>
+      <c r="E47">
+        <v>59.0038685798645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>14.61813950538635</v>
+      </c>
+      <c r="C48">
+        <v>23.41620659828186</v>
+      </c>
+      <c r="D48">
+        <v>67.44307637214661</v>
+      </c>
+      <c r="E48">
+        <v>58.54408574104309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>14.59973454475403</v>
+      </c>
+      <c r="C49">
+        <v>23.74561738967896</v>
+      </c>
+      <c r="D49">
+        <v>52.18515706062317</v>
+      </c>
+      <c r="E49">
+        <v>59.6077663898468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>14.18881797790527</v>
+      </c>
+      <c r="C50">
+        <v>24.52072954177856</v>
+      </c>
+      <c r="D50">
+        <v>48.50590443611145</v>
+      </c>
+      <c r="E50">
+        <v>58.87190175056458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>14.47816228866577</v>
+      </c>
+      <c r="C51">
+        <v>24.10358452796936</v>
+      </c>
+      <c r="D51">
+        <v>52.23300433158875</v>
+      </c>
+      <c r="E51">
+        <v>58.94009375572205</v>
       </c>
     </row>
   </sheetData>
